--- a/data/RSA/2.xlsx
+++ b/data/RSA/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Gender-classification-for-jobs\data\RSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E718E8E-72F8-40FD-B4AB-EB3F5B86D6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E8D44A-9777-4FCF-857A-AB3070F84585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,141 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
-  <si>
-    <t>Registration Number</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Availability on 10th</t>
-  </si>
-  <si>
-    <t>Time Friday</t>
-  </si>
-  <si>
-    <t>18MIS0160</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>M Thanuja</t>
   </si>
   <si>
-    <t>Afternoon</t>
-  </si>
-  <si>
-    <t>2-3 PM</t>
-  </si>
-  <si>
-    <t>18MIS0243</t>
-  </si>
-  <si>
     <t>Kondeti Sai Lavanya .</t>
   </si>
   <si>
-    <t>ForeNoon</t>
-  </si>
-  <si>
-    <t>9-9.45</t>
-  </si>
-  <si>
-    <t>18MIS0356</t>
-  </si>
-  <si>
     <t>K Sai Sujana .</t>
   </si>
   <si>
-    <t>2.30-3.15</t>
-  </si>
-  <si>
-    <t>18MIS0364</t>
-  </si>
-  <si>
     <t>Maran Arunmozhi</t>
   </si>
   <si>
-    <t>12-12.45</t>
-  </si>
-  <si>
-    <t>18MIS0404</t>
-  </si>
-  <si>
     <t>Yamini M</t>
   </si>
   <si>
-    <t>9.30 - 10.15</t>
-  </si>
-  <si>
-    <t>18MIS0411</t>
-  </si>
-  <si>
     <t>SOLOMON REX S S .</t>
   </si>
   <si>
-    <t>18MIS7030</t>
-  </si>
-  <si>
     <t>G SAI PAVAN .</t>
   </si>
   <si>
-    <t>18MIS7073</t>
-  </si>
-  <si>
     <t>BIJINIPALLI RAKESH .</t>
   </si>
   <si>
-    <t>2-2.45</t>
-  </si>
-  <si>
-    <t>18MIS7085</t>
-  </si>
-  <si>
     <t>K SAI SUNEETH</t>
   </si>
   <si>
-    <t>3-3.45</t>
-  </si>
-  <si>
-    <t>18MIS7093</t>
-  </si>
-  <si>
     <t>NANDIMANDALAM SATHWIKA .</t>
   </si>
   <si>
-    <t>1-1.45</t>
-  </si>
-  <si>
-    <t>18MIS7156</t>
-  </si>
-  <si>
     <t>JONNALAGADDA RISHITHA .</t>
   </si>
   <si>
-    <t>11-11.45</t>
-  </si>
-  <si>
-    <t>18MIS7219</t>
-  </si>
-  <si>
     <t>BANDA SWATHI</t>
   </si>
   <si>
-    <t>21MCF10009</t>
-  </si>
-  <si>
     <t>Syed Aqsa Ahmed .</t>
   </si>
   <si>
-    <t>21MPC1011</t>
-  </si>
-  <si>
     <t>Debabrata Tah</t>
-  </si>
-  <si>
-    <t>10.30-11.15</t>
-  </si>
-  <si>
-    <t>21MPC1014</t>
   </si>
   <si>
     <t>Pallavi Zate</t>
@@ -169,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,26 +85,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,50 +104,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B084"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6E0B4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -271,24 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,236 +413,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
+    </row>
+    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
